--- a/Module 2 Everyday Excel Part 2/Week 1 files/Field trip.xlsx
+++ b/Module 2 Everyday Excel Part 2/Week 1 files/Field trip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\MOOC Excel\Screencasts\Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Week 1 files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964CCB3-CEEB-4D86-94DA-6A2351677117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1239C1B-9EA8-4304-8716-19F575147AA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1058" windowWidth="20528" windowHeight="11549" xr2:uid="{AD784284-B6E9-4EEF-B2E9-0E57581F94AE}"/>
+    <workbookView xWindow="3180" yWindow="5580" windowWidth="28500" windowHeight="14955" xr2:uid="{AD784284-B6E9-4EEF-B2E9-0E57581F94AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,25 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Time</t>
   </si>
@@ -141,6 +133,18 @@
   </si>
   <si>
     <t>Choice</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP3 </t>
+  </si>
+  <si>
+    <t>MUSEUM</t>
+  </si>
+  <si>
+    <t>GO/NOT</t>
   </si>
 </sst>
 </file>
@@ -508,25 +512,25 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,10 +540,18 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>1</v>
@@ -548,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43954.377883326306</v>
       </c>
@@ -558,6 +570,22 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <f>COUNTIF($C$4:C4,C4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f>$C$4:$C$28=$I$4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f>D4:D4&lt;=VLOOKUP(I$10,I$4:J$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
@@ -565,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43954.421995859353</v>
       </c>
@@ -575,6 +603,22 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5">
+        <f>COUNTIF($C$4:C5,C5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" ref="E5:E28" si="0">$C$4:$C$28=$I$4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ref="F5:F28" si="1">D5:D5&lt;=VLOOKUP(I$10,I$4:J$7,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G28" si="2">E5*F5</f>
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -582,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43954.439328911882</v>
       </c>
@@ -592,6 +636,22 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <f>COUNTIF($C$4:C6,C6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -599,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43954.46104810985</v>
       </c>
@@ -609,6 +669,22 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7">
+        <f>COUNTIF($C$4:C7,C7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -616,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43954.461730127288</v>
       </c>
@@ -626,8 +702,24 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <f>COUNTIF($C$4:C8,C8)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43954.475527997012</v>
       </c>
@@ -637,8 +729,24 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <f>COUNTIF($C$4:C9,C9)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43954.480970291472</v>
       </c>
@@ -648,6 +756,22 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="D10">
+        <f>COUNTIF($C$4:C10,C10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
@@ -661,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43954.488190908058</v>
       </c>
@@ -671,8 +795,24 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <f>COUNTIF($C$4:C11,C11)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>E11*F11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43954.565401876462</v>
       </c>
@@ -682,8 +822,24 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f>COUNTIF($C$4:C12,C12)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43954.57176975163</v>
       </c>
@@ -693,8 +849,24 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <f>COUNTIF($C$4:C13,C13)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43954.57284662241</v>
       </c>
@@ -704,8 +876,24 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <f>COUNTIF($C$4:C14,C14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43954.577503508932</v>
       </c>
@@ -715,8 +903,24 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <f>COUNTIF($C$4:C15,C15)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43954.591259584966</v>
       </c>
@@ -726,8 +930,24 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <f>COUNTIF($C$4:C16,C16)</f>
+        <v>4</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43954.596247054789</v>
       </c>
@@ -737,8 +957,24 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <f>COUNTIF($C$4:C17,C17)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43954.647198206869</v>
       </c>
@@ -748,8 +984,24 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <f>COUNTIF($C$4:C18,C18)</f>
+        <v>5</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43954.653426100696</v>
       </c>
@@ -759,8 +1011,24 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <f>COUNTIF($C$4:C19,C19)</f>
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43954.655500826128</v>
       </c>
@@ -770,8 +1038,24 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <f>COUNTIF($C$4:C20,C20)</f>
+        <v>5</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43954.672460414797</v>
       </c>
@@ -781,8 +1065,24 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <f>COUNTIF($C$4:C21,C21)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43954.710104736769</v>
       </c>
@@ -792,8 +1092,24 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f>COUNTIF($C$4:C22,C22)</f>
+        <v>4</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43954.746880821338</v>
       </c>
@@ -803,8 +1119,24 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <f>COUNTIF($C$4:C23,C23)</f>
+        <v>5</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43954.778527606984</v>
       </c>
@@ -814,8 +1146,24 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <f>COUNTIF($C$4:C24,C24)</f>
+        <v>6</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43954.802759808794</v>
       </c>
@@ -825,8 +1173,24 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <f>COUNTIF($C$4:C25,C25)</f>
+        <v>7</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43954.812399556344</v>
       </c>
@@ -836,8 +1200,24 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <f>COUNTIF($C$4:C26,C26)</f>
+        <v>5</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43954.815186032778</v>
       </c>
@@ -847,8 +1227,24 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <f>COUNTIF($C$4:C27,C27)</f>
+        <v>6</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43954.835569882373</v>
       </c>
@@ -857,6 +1253,22 @@
       </c>
       <c r="C28" t="s">
         <v>5</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF($C$4:C28,C28)</f>
+        <v>7</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
